--- a/杂项/0/merged.xlsx
+++ b/杂项/0/merged.xlsx
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>79evm_l</t>
-  </si>
-  <si>
-    <t>79evm_m</t>
-  </si>
-  <si>
-    <t>79evm_h</t>
-  </si>
-  <si>
-    <t>77evm_l</t>
-  </si>
-  <si>
-    <t>77evm_m</t>
-  </si>
-  <si>
-    <t>77evm_h</t>
-  </si>
-  <si>
-    <t>78evm_l</t>
-  </si>
-  <si>
-    <t>78evm_m</t>
-  </si>
-  <si>
-    <t>78evm_h</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>频道</t>
+  </si>
+  <si>
+    <t>7000evm_l</t>
+  </si>
+  <si>
+    <t>7000evm_m</t>
+  </si>
+  <si>
+    <t>7000evm_h</t>
+  </si>
+  <si>
+    <t>6000evm_l</t>
+  </si>
+  <si>
+    <t>6000evm_m</t>
+  </si>
+  <si>
+    <t>6000evm_h</t>
+  </si>
+  <si>
+    <t>8000evm_l</t>
+  </si>
+  <si>
+    <t>8000evm_m</t>
+  </si>
+  <si>
+    <t>8000evm_h</t>
   </si>
 </sst>
 </file>
@@ -398,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,169 +435,167 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6</v>
       </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6</v>
       </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6</v>
       </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="D7">
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="G6">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="G12">
+      <c r="H6">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
+      <c r="J6">
         <v>3</v>
       </c>
     </row>
